--- a/converter/data/xlsx/23.5.B_SMJENA.XLSX
+++ b/converter/data/xlsx/23.5.B_SMJENA.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RASPORED-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65EBCA-4252-41D4-9ED4-F2AC1654D3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -424,7 +425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3190,6 +3191,33 @@
     <xf numFmtId="0" fontId="29" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3232,47 +3260,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3490,6 +3491,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3525,6 +3543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3700,132 +3735,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="31" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="31" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.28515625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="1"/>
+    <col min="35" max="35" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.33203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="438" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="447" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="438"/>
-      <c r="K1" s="438"/>
-      <c r="L1" s="438"/>
-      <c r="M1" s="438"/>
-      <c r="N1" s="438"/>
-      <c r="O1" s="438"/>
-      <c r="P1" s="438"/>
-      <c r="Q1" s="438"/>
-      <c r="R1" s="438"/>
-      <c r="S1" s="438"/>
-      <c r="T1" s="438"/>
-      <c r="U1" s="438"/>
-      <c r="V1" s="438"/>
-      <c r="W1" s="438"/>
-      <c r="X1" s="438"/>
-      <c r="Y1" s="438"/>
-      <c r="Z1" s="438"/>
-      <c r="AA1" s="438"/>
-      <c r="AB1" s="438"/>
-      <c r="AC1" s="438"/>
-      <c r="AD1" s="438"/>
-      <c r="AE1" s="438"/>
-      <c r="AF1" s="438"/>
-      <c r="AG1" s="438"/>
-      <c r="AH1" s="438"/>
-      <c r="AI1" s="438"/>
-      <c r="AJ1" s="438"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="447"/>
+      <c r="C1" s="447"/>
+      <c r="D1" s="447"/>
+      <c r="E1" s="447"/>
+      <c r="F1" s="447"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
+      <c r="L1" s="447"/>
+      <c r="M1" s="447"/>
+      <c r="N1" s="447"/>
+      <c r="O1" s="447"/>
+      <c r="P1" s="447"/>
+      <c r="Q1" s="447"/>
+      <c r="R1" s="447"/>
+      <c r="S1" s="447"/>
+      <c r="T1" s="447"/>
+      <c r="U1" s="447"/>
+      <c r="V1" s="447"/>
+      <c r="W1" s="447"/>
+      <c r="X1" s="447"/>
+      <c r="Y1" s="447"/>
+      <c r="Z1" s="447"/>
+      <c r="AA1" s="447"/>
+      <c r="AB1" s="447"/>
+      <c r="AC1" s="447"/>
+      <c r="AD1" s="447"/>
+      <c r="AE1" s="447"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="447"/>
+      <c r="AH1" s="447"/>
+      <c r="AI1" s="447"/>
+      <c r="AJ1" s="447"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="448" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="442" t="s">
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="440"/>
-      <c r="K2" s="440"/>
-      <c r="L2" s="440"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="440"/>
-      <c r="O2" s="441"/>
-      <c r="P2" s="439" t="s">
+      <c r="J2" s="449"/>
+      <c r="K2" s="449"/>
+      <c r="L2" s="449"/>
+      <c r="M2" s="449"/>
+      <c r="N2" s="449"/>
+      <c r="O2" s="450"/>
+      <c r="P2" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="440"/>
-      <c r="R2" s="440"/>
-      <c r="S2" s="440"/>
-      <c r="T2" s="440"/>
-      <c r="U2" s="440"/>
-      <c r="V2" s="441"/>
-      <c r="W2" s="442" t="s">
+      <c r="Q2" s="449"/>
+      <c r="R2" s="449"/>
+      <c r="S2" s="449"/>
+      <c r="T2" s="449"/>
+      <c r="U2" s="449"/>
+      <c r="V2" s="450"/>
+      <c r="W2" s="451" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="440"/>
-      <c r="Y2" s="440"/>
-      <c r="Z2" s="440"/>
-      <c r="AA2" s="440"/>
-      <c r="AB2" s="440"/>
-      <c r="AC2" s="441"/>
-      <c r="AD2" s="443" t="s">
+      <c r="X2" s="449"/>
+      <c r="Y2" s="449"/>
+      <c r="Z2" s="449"/>
+      <c r="AA2" s="449"/>
+      <c r="AB2" s="449"/>
+      <c r="AC2" s="450"/>
+      <c r="AD2" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="444"/>
-      <c r="AG2" s="444"/>
-      <c r="AH2" s="444"/>
-      <c r="AI2" s="444"/>
-      <c r="AJ2" s="445"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="453"/>
+      <c r="AF2" s="453"/>
+      <c r="AG2" s="453"/>
+      <c r="AH2" s="453"/>
+      <c r="AI2" s="453"/>
+      <c r="AJ2" s="454"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>71</v>
       </c>
@@ -3997,7 +4032,7 @@
       <c r="AI4" s="26"/>
       <c r="AJ4" s="154"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
         <v>72</v>
       </c>
@@ -4063,7 +4098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="235" t="s">
         <v>60</v>
       </c>
@@ -4087,12 +4122,8 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -4123,7 +4154,7 @@
       <c r="AI6" s="20"/>
       <c r="AJ6" s="38"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="293" t="s">
         <v>49</v>
       </c>
@@ -4249,7 +4280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
@@ -4313,7 +4344,7 @@
       </c>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="235" t="s">
         <v>8</v>
       </c>
@@ -4363,7 +4394,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="38"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="236" t="s">
         <v>16</v>
       </c>
@@ -4423,7 +4454,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="236" t="s">
         <v>66</v>
       </c>
@@ -4467,7 +4498,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="236" t="s">
         <v>13</v>
       </c>
@@ -4526,7 +4557,7 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="93"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="237" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4614,7 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="93"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="237" t="s">
         <v>32</v>
       </c>
@@ -4638,7 +4669,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="93"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="237" t="s">
         <v>41</v>
       </c>
@@ -4693,7 +4724,7 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="93"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="234" t="s">
         <v>5</v>
       </c>
@@ -4734,7 +4765,7 @@
       <c r="AJ17" s="40"/>
       <c r="AK17" s="93"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -4899,7 +4930,7 @@
       <c r="AI20" s="35"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="234" t="s">
         <v>102</v>
       </c>
@@ -4948,7 +4979,7 @@
       <c r="AJ21" s="24"/>
       <c r="AL21" s="93"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="234" t="s">
         <v>65</v>
       </c>
@@ -5009,7 +5040,7 @@
       <c r="AJ22" s="24"/>
       <c r="AL22" s="93"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="235" t="s">
         <v>33</v>
       </c>
@@ -5075,7 +5106,7 @@
       <c r="AI23" s="20"/>
       <c r="AJ23" s="38"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="222" t="s">
         <v>28</v>
       </c>
@@ -5262,7 +5293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="236" t="s">
         <v>26</v>
       </c>
@@ -5329,7 +5360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="237" t="s">
         <v>14</v>
       </c>
@@ -5461,7 +5492,7 @@
       <c r="AJ29" s="48"/>
       <c r="AK29" s="118"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="234" t="s">
         <v>6</v>
       </c>
@@ -5475,10 +5506,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="451"/>
-      <c r="M30" s="451"/>
-      <c r="N30" s="451"/>
-      <c r="O30" s="452"/>
+      <c r="L30" s="432"/>
+      <c r="M30" s="432"/>
+      <c r="N30" s="432"/>
+      <c r="O30" s="433"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -5504,7 +5535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
@@ -5646,7 +5677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="234" t="s">
         <v>12</v>
       </c>
@@ -5727,7 +5758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="235" t="s">
         <v>7</v>
       </c>
@@ -5755,10 +5786,10 @@
         <v>58</v>
       </c>
       <c r="K34" s="133"/>
-      <c r="L34" s="453"/>
-      <c r="M34" s="453"/>
-      <c r="N34" s="454"/>
-      <c r="O34" s="455"/>
+      <c r="L34" s="434"/>
+      <c r="M34" s="434"/>
+      <c r="N34" s="435"/>
+      <c r="O34" s="436"/>
       <c r="P34" s="182"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -5786,7 +5817,7 @@
       <c r="AJ34" s="190"/>
       <c r="AK34" s="117"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="294" t="s">
         <v>51</v>
       </c>
@@ -5846,7 +5877,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
@@ -5872,8 +5903,12 @@
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="41"/>
+      <c r="N36" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="P36" s="312" t="s">
         <v>46</v>
       </c>
@@ -5916,7 +5951,7 @@
       <c r="AI36" s="35"/>
       <c r="AJ36" s="48"/>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="234" t="s">
         <v>42</v>
       </c>
@@ -5970,7 +6005,7 @@
       <c r="AI37" s="137"/>
       <c r="AJ37" s="419"/>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="234" t="s">
         <v>30</v>
       </c>
@@ -6022,7 +6057,7 @@
       <c r="AI38" s="35"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="235" t="s">
         <v>43</v>
       </c>
@@ -6078,7 +6113,7 @@
       <c r="AI39" s="263"/>
       <c r="AJ39" s="142"/>
     </row>
-    <row r="40" spans="1:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="237" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +6324,7 @@
       </c>
       <c r="AK42" s="90"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="236" t="s">
         <v>104</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="221" t="s">
         <v>73</v>
       </c>
@@ -6405,7 +6440,7 @@
       </c>
       <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -6463,7 +6498,7 @@
       <c r="AI45" s="403"/>
       <c r="AJ45" s="406"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="160" t="s">
         <v>89</v>
       </c>
@@ -6538,7 +6573,7 @@
       <c r="AJ46" s="172"/>
       <c r="AK46" s="93"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="398" t="s">
         <v>90</v>
       </c>
@@ -6591,7 +6626,7 @@
       <c r="AJ47" s="172"/>
       <c r="AK47" s="93"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="398" t="s">
         <v>82</v>
       </c>
@@ -6638,7 +6673,7 @@
       </c>
       <c r="AK48" s="93"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="169" t="s">
         <v>91</v>
       </c>
@@ -6709,7 +6744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="398" t="s">
         <v>92</v>
       </c>
@@ -6863,7 +6898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>93</v>
       </c>
@@ -6963,7 +6998,7 @@
       </c>
       <c r="AL52" s="93"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>94</v>
       </c>
@@ -7062,19 +7097,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="432" t="s">
+      <c r="B54" s="441" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="433"/>
-      <c r="D54" s="433"/>
-      <c r="E54" s="433"/>
-      <c r="F54" s="433"/>
-      <c r="G54" s="433"/>
-      <c r="H54" s="434"/>
+      <c r="C54" s="442"/>
+      <c r="D54" s="442"/>
+      <c r="E54" s="442"/>
+      <c r="F54" s="442"/>
+      <c r="G54" s="442"/>
+      <c r="H54" s="443"/>
       <c r="I54" s="107"/>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
@@ -7119,7 +7154,7 @@
       <c r="AJ54" s="77"/>
       <c r="AK54" s="93"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>96</v>
       </c>
@@ -7178,7 +7213,7 @@
       <c r="AJ55" s="101"/>
       <c r="AK55" s="93"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="234" t="s">
         <v>79</v>
       </c>
@@ -7218,16 +7253,16 @@
       <c r="AA56" s="215"/>
       <c r="AB56" s="215"/>
       <c r="AC56" s="282"/>
-      <c r="AD56" s="435"/>
-      <c r="AE56" s="436"/>
-      <c r="AF56" s="436"/>
-      <c r="AG56" s="436"/>
-      <c r="AH56" s="436"/>
-      <c r="AI56" s="436"/>
-      <c r="AJ56" s="437"/>
+      <c r="AD56" s="444"/>
+      <c r="AE56" s="445"/>
+      <c r="AF56" s="445"/>
+      <c r="AG56" s="445"/>
+      <c r="AH56" s="445"/>
+      <c r="AI56" s="445"/>
+      <c r="AJ56" s="446"/>
       <c r="AK56" s="93"/>
     </row>
-    <row r="57" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>95</v>
       </c>
@@ -7322,7 +7357,7 @@
       </c>
       <c r="AK57" s="94"/>
     </row>
-    <row r="58" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
@@ -7359,66 +7394,61 @@
       <c r="AI58" s="57"/>
       <c r="AJ58" s="57"/>
     </row>
-    <row r="59" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="446" t="s">
+      <c r="B59" s="437" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="447"/>
-      <c r="D59" s="447"/>
-      <c r="E59" s="447"/>
-      <c r="F59" s="447"/>
-      <c r="G59" s="447"/>
-      <c r="H59" s="449"/>
-      <c r="I59" s="446" t="s">
+      <c r="C59" s="438"/>
+      <c r="D59" s="438"/>
+      <c r="E59" s="438"/>
+      <c r="F59" s="438"/>
+      <c r="G59" s="438"/>
+      <c r="H59" s="440"/>
+      <c r="I59" s="437" t="s">
         <v>98</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="447"/>
-      <c r="L59" s="447"/>
-      <c r="M59" s="447"/>
-      <c r="N59" s="447"/>
-      <c r="O59" s="449"/>
-      <c r="P59" s="446" t="s">
+      <c r="J59" s="438"/>
+      <c r="K59" s="438"/>
+      <c r="L59" s="438"/>
+      <c r="M59" s="438"/>
+      <c r="N59" s="438"/>
+      <c r="O59" s="440"/>
+      <c r="P59" s="437" t="s">
         <v>99</v>
       </c>
-      <c r="Q59" s="447"/>
-      <c r="R59" s="447"/>
-      <c r="S59" s="447"/>
-      <c r="T59" s="447"/>
-      <c r="U59" s="447"/>
-      <c r="V59" s="449"/>
-      <c r="W59" s="446" t="s">
+      <c r="Q59" s="438"/>
+      <c r="R59" s="438"/>
+      <c r="S59" s="438"/>
+      <c r="T59" s="438"/>
+      <c r="U59" s="438"/>
+      <c r="V59" s="440"/>
+      <c r="W59" s="437" t="s">
         <v>100</v>
       </c>
-      <c r="X59" s="447"/>
-      <c r="Y59" s="447"/>
-      <c r="Z59" s="447"/>
-      <c r="AA59" s="447"/>
-      <c r="AB59" s="447"/>
-      <c r="AC59" s="449"/>
-      <c r="AD59" s="446" t="s">
+      <c r="X59" s="438"/>
+      <c r="Y59" s="438"/>
+      <c r="Z59" s="438"/>
+      <c r="AA59" s="438"/>
+      <c r="AB59" s="438"/>
+      <c r="AC59" s="440"/>
+      <c r="AD59" s="437" t="s">
         <v>106</v>
       </c>
-      <c r="AE59" s="447"/>
-      <c r="AF59" s="447"/>
-      <c r="AG59" s="447"/>
-      <c r="AH59" s="447"/>
-      <c r="AI59" s="447"/>
-      <c r="AJ59" s="448"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE59" s="438"/>
+      <c r="AF59" s="438"/>
+      <c r="AG59" s="438"/>
+      <c r="AH59" s="438"/>
+      <c r="AI59" s="438"/>
+      <c r="AJ59" s="439"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O63" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AD59:AJ59"/>
-    <mergeCell ref="W59:AC59"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="I59:O59"/>
-    <mergeCell ref="P59:V59"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="AD56:AJ56"/>
     <mergeCell ref="A1:AJ1"/>
@@ -7427,6 +7457,11 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD59:AJ59"/>
+    <mergeCell ref="W59:AC59"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="I59:O59"/>
+    <mergeCell ref="P59:V59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7438,30 +7473,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="370"/>
-    <col min="2" max="2" width="16.42578125" style="370" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="370" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="370" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="370"/>
+    <col min="1" max="1" width="8.6640625" style="370"/>
+    <col min="2" max="2" width="16.44140625" style="370" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="370" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="370" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="370"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="450" t="s">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="376"/>
       <c r="C2" s="79" t="s">
         <v>20</v>
@@ -7470,12 +7505,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="371"/>
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="165"/>
       <c r="C4" s="79" t="s">
         <v>20</v>
@@ -7484,12 +7519,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="371"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="124"/>
       <c r="C6" s="79" t="s">
         <v>20</v>
@@ -7498,12 +7533,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="371"/>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="125"/>
       <c r="C8" s="79" t="s">
         <v>20</v>
@@ -7512,12 +7547,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="371"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="81"/>
       <c r="C10" s="79" t="s">
         <v>20</v>
@@ -7526,12 +7561,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="126"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="199"/>
       <c r="C12" s="79" t="s">
         <v>20</v>
@@ -7540,12 +7575,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="126"/>
       <c r="C13" s="195"/>
       <c r="D13" s="80"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="374"/>
       <c r="C14" s="79" t="s">
         <v>20</v>
@@ -7555,12 +7590,12 @@
       </c>
       <c r="F14" s="373"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="372"/>
       <c r="C15" s="79"/>
       <c r="D15" s="127"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="128"/>
       <c r="C16" s="79" t="s">
         <v>20</v>
@@ -7569,12 +7604,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="371"/>
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="166"/>
       <c r="C18" s="79" t="s">
         <v>20</v>
@@ -7583,12 +7618,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="371"/>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="82"/>
       <c r="C20" s="79" t="s">
         <v>20</v>
@@ -7597,12 +7632,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="371"/>
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="143"/>
       <c r="C22" s="79" t="s">
         <v>20</v>
@@ -7611,12 +7646,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="371"/>
       <c r="C23" s="79"/>
       <c r="D23" s="80"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="83"/>
       <c r="C24" s="79" t="s">
         <v>20</v>
@@ -7625,12 +7660,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="371"/>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="84"/>
       <c r="C26" s="79" t="s">
         <v>20</v>
@@ -7639,12 +7674,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="371"/>
       <c r="C27" s="371"/>
       <c r="D27" s="80"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85"/>
       <c r="C28" s="79" t="s">
         <v>20</v>
@@ -7653,41 +7688,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="371"/>
       <c r="C29" s="371"/>
       <c r="D29" s="371"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="129"/>
       <c r="C30" s="371"/>
       <c r="D30" s="80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="371"/>
       <c r="C31" s="371"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="86"/>
       <c r="C32" s="371"/>
       <c r="D32" s="80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="371"/>
       <c r="C33" s="371"/>
       <c r="D33" s="371"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="371"/>
       <c r="C34" s="371"/>
       <c r="D34" s="371"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="130"/>
       <c r="C35" s="371"/>
       <c r="D35" s="80" t="s">
